--- a/US/data/BOC/FTD/FTDE/ABOP3_historical.xlsx
+++ b/US/data/BOC/FTD/FTDE/ABOP3_historical.xlsx
@@ -2591,85 +2591,89 @@
         <v>-42912</v>
       </c>
       <c r="IT2" t="n">
-        <v>-43823</v>
+        <v>-42311</v>
       </c>
       <c r="IU2" t="n">
-        <v>-44171</v>
+        <v>-42916</v>
       </c>
       <c r="IV2" t="n">
-        <v>-44749</v>
+        <v>-43235</v>
       </c>
       <c r="IW2" t="n">
-        <v>-47252</v>
+        <v>-45865</v>
       </c>
       <c r="IX2" t="n">
-        <v>-51677</v>
+        <v>-50487</v>
       </c>
       <c r="IY2" t="n">
-        <v>-52850</v>
+        <v>-51862</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-55444</v>
+        <v>-54053</v>
       </c>
       <c r="JA2" t="n">
-        <v>-58383</v>
+        <v>-56302</v>
       </c>
       <c r="JB2" t="n">
-        <v>-62367</v>
+        <v>-59679</v>
       </c>
       <c r="JC2" t="n">
-        <v>-63345</v>
+        <v>-60775</v>
       </c>
       <c r="JD2" t="n">
-        <v>-64537</v>
+        <v>-62065</v>
       </c>
       <c r="JE2" t="n">
-        <v>-65596</v>
+        <v>-63220</v>
       </c>
       <c r="JF2" t="n">
-        <v>-66078</v>
+        <v>-63794</v>
       </c>
       <c r="JG2" t="n">
-        <v>-66158</v>
+        <v>-63897</v>
       </c>
       <c r="JH2" t="n">
-        <v>-68022</v>
+        <v>-65730</v>
       </c>
       <c r="JI2" t="n">
-        <v>-68124</v>
+        <v>-66362</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-68040</v>
+        <v>-66809</v>
       </c>
       <c r="JK2" t="n">
-        <v>-68318</v>
+        <v>-67905</v>
       </c>
       <c r="JL2" t="n">
-        <v>-69746</v>
+        <v>-69124</v>
       </c>
       <c r="JM2" t="n">
-        <v>-71487</v>
+        <v>-70722</v>
       </c>
       <c r="JN2" t="n">
-        <v>-74464</v>
+        <v>-73047</v>
       </c>
       <c r="JO2" t="n">
-        <v>-73542</v>
+        <v>-72639</v>
       </c>
       <c r="JP2" t="n">
-        <v>-76057</v>
+        <v>-74822</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-76323</v>
+        <v>-75000</v>
       </c>
       <c r="JR2" t="n">
-        <v>-83751</v>
+        <v>-81610</v>
       </c>
       <c r="JS2" t="n">
-        <v>-86790</v>
-      </c>
-      <c r="JT2" t="inlineStr"/>
-      <c r="JU2" t="inlineStr"/>
+        <v>-84995</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>-94590</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>-94287</v>
+      </c>
       <c r="JV2" t="inlineStr"/>
       <c r="JW2" t="inlineStr"/>
       <c r="JX2" t="inlineStr"/>
@@ -3455,85 +3459,89 @@
         <v>209926</v>
       </c>
       <c r="IT3" t="n">
-        <v>208237</v>
+        <v>210155</v>
       </c>
       <c r="IU3" t="n">
-        <v>206598</v>
+        <v>208874</v>
       </c>
       <c r="IV3" t="n">
-        <v>199133</v>
+        <v>201325</v>
       </c>
       <c r="IW3" t="n">
-        <v>180794</v>
+        <v>182451</v>
       </c>
       <c r="IX3" t="n">
-        <v>161224</v>
+        <v>161984</v>
       </c>
       <c r="IY3" t="n">
-        <v>151662</v>
+        <v>152399</v>
       </c>
       <c r="IZ3" t="n">
-        <v>158607</v>
+        <v>159535</v>
       </c>
       <c r="JA3" t="n">
-        <v>168000</v>
+        <v>169542</v>
       </c>
       <c r="JB3" t="n">
-        <v>174420</v>
+        <v>176582</v>
       </c>
       <c r="JC3" t="n">
-        <v>178361</v>
+        <v>180979</v>
       </c>
       <c r="JD3" t="n">
-        <v>181994</v>
+        <v>185003</v>
       </c>
       <c r="JE3" t="n">
-        <v>186265</v>
+        <v>189246</v>
       </c>
       <c r="JF3" t="n">
-        <v>190198</v>
+        <v>193303</v>
       </c>
       <c r="JG3" t="n">
-        <v>192013</v>
+        <v>194993</v>
       </c>
       <c r="JH3" t="n">
-        <v>196839</v>
+        <v>199443</v>
       </c>
       <c r="JI3" t="n">
-        <v>201241</v>
+        <v>202809</v>
       </c>
       <c r="JJ3" t="n">
-        <v>207603</v>
+        <v>208431</v>
       </c>
       <c r="JK3" t="n">
-        <v>209462</v>
+        <v>210082</v>
       </c>
       <c r="JL3" t="n">
-        <v>211345</v>
+        <v>212242</v>
       </c>
       <c r="JM3" t="n">
-        <v>212939</v>
+        <v>214096</v>
       </c>
       <c r="JN3" t="n">
-        <v>211964</v>
+        <v>213861</v>
       </c>
       <c r="JO3" t="n">
-        <v>215753</v>
+        <v>217786</v>
       </c>
       <c r="JP3" t="n">
-        <v>219274</v>
+        <v>221887</v>
       </c>
       <c r="JQ3" t="n">
-        <v>226054</v>
+        <v>228826</v>
       </c>
       <c r="JR3" t="n">
-        <v>225966</v>
+        <v>229456</v>
       </c>
       <c r="JS3" t="n">
-        <v>227156</v>
-      </c>
-      <c r="JT3" t="inlineStr"/>
-      <c r="JU3" t="inlineStr"/>
+        <v>230989</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>234881</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>243159</v>
+      </c>
       <c r="JV3" t="inlineStr"/>
       <c r="JW3" t="inlineStr"/>
       <c r="JX3" t="inlineStr"/>
@@ -4319,85 +4327,89 @@
         <v>252838</v>
       </c>
       <c r="IT4" t="n">
-        <v>252061</v>
+        <v>252466</v>
       </c>
       <c r="IU4" t="n">
-        <v>250769</v>
+        <v>251791</v>
       </c>
       <c r="IV4" t="n">
-        <v>243883</v>
+        <v>244560</v>
       </c>
       <c r="IW4" t="n">
-        <v>228046</v>
+        <v>228315</v>
       </c>
       <c r="IX4" t="n">
-        <v>212901</v>
+        <v>212471</v>
       </c>
       <c r="IY4" t="n">
-        <v>204512</v>
+        <v>204260</v>
       </c>
       <c r="IZ4" t="n">
-        <v>214051</v>
+        <v>213588</v>
       </c>
       <c r="JA4" t="n">
-        <v>226384</v>
+        <v>225844</v>
       </c>
       <c r="JB4" t="n">
-        <v>236786</v>
+        <v>236261</v>
       </c>
       <c r="JC4" t="n">
-        <v>241706</v>
+        <v>241754</v>
       </c>
       <c r="JD4" t="n">
-        <v>246531</v>
+        <v>247068</v>
       </c>
       <c r="JE4" t="n">
-        <v>251861</v>
+        <v>252466</v>
       </c>
       <c r="JF4" t="n">
-        <v>256275</v>
+        <v>257097</v>
       </c>
       <c r="JG4" t="n">
-        <v>258170</v>
+        <v>258890</v>
       </c>
       <c r="JH4" t="n">
-        <v>264861</v>
+        <v>265174</v>
       </c>
       <c r="JI4" t="n">
-        <v>269365</v>
+        <v>269171</v>
       </c>
       <c r="JJ4" t="n">
-        <v>275643</v>
+        <v>275240</v>
       </c>
       <c r="JK4" t="n">
-        <v>277780</v>
+        <v>277987</v>
       </c>
       <c r="JL4" t="n">
-        <v>281091</v>
+        <v>281366</v>
       </c>
       <c r="JM4" t="n">
-        <v>284426</v>
+        <v>284818</v>
       </c>
       <c r="JN4" t="n">
-        <v>286428</v>
+        <v>286908</v>
       </c>
       <c r="JO4" t="n">
-        <v>289294</v>
+        <v>290424</v>
       </c>
       <c r="JP4" t="n">
-        <v>295331</v>
+        <v>296709</v>
       </c>
       <c r="JQ4" t="n">
-        <v>302377</v>
+        <v>303826</v>
       </c>
       <c r="JR4" t="n">
-        <v>309718</v>
+        <v>311066</v>
       </c>
       <c r="JS4" t="n">
-        <v>313946</v>
-      </c>
-      <c r="JT4" t="inlineStr"/>
-      <c r="JU4" t="inlineStr"/>
+        <v>315984</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>329471</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>337446</v>
+      </c>
       <c r="JV4" t="inlineStr"/>
       <c r="JW4" t="inlineStr"/>
       <c r="JX4" t="inlineStr"/>
@@ -5183,85 +5195,89 @@
         <v>-67058</v>
       </c>
       <c r="IT5" t="n">
-        <v>-67325</v>
+        <v>-66656</v>
       </c>
       <c r="IU5" t="n">
-        <v>-66911</v>
+        <v>-66093</v>
       </c>
       <c r="IV5" t="n">
-        <v>-66753</v>
+        <v>-65776</v>
       </c>
       <c r="IW5" t="n">
-        <v>-69012</v>
+        <v>-68292</v>
       </c>
       <c r="IX5" t="n">
-        <v>-73329</v>
+        <v>-72997</v>
       </c>
       <c r="IY5" t="n">
-        <v>-74424</v>
+        <v>-74250</v>
       </c>
       <c r="IZ5" t="n">
-        <v>-76483</v>
+        <v>-76162</v>
       </c>
       <c r="JA5" t="n">
-        <v>-78587</v>
+        <v>-78058</v>
       </c>
       <c r="JB5" t="n">
-        <v>-81790</v>
+        <v>-81022</v>
       </c>
       <c r="JC5" t="n">
-        <v>-82235</v>
+        <v>-81573</v>
       </c>
       <c r="JD5" t="n">
-        <v>-83322</v>
+        <v>-82563</v>
       </c>
       <c r="JE5" t="n">
-        <v>-84375</v>
+        <v>-83581</v>
       </c>
       <c r="JF5" t="n">
-        <v>-85652</v>
+        <v>-84987</v>
       </c>
       <c r="JG5" t="n">
-        <v>-86468</v>
+        <v>-85959</v>
       </c>
       <c r="JH5" t="n">
-        <v>-89007</v>
+        <v>-88423</v>
       </c>
       <c r="JI5" t="n">
-        <v>-89161</v>
+        <v>-88793</v>
       </c>
       <c r="JJ5" t="n">
-        <v>-89165</v>
+        <v>-88704</v>
       </c>
       <c r="JK5" t="n">
-        <v>-89249</v>
+        <v>-89143</v>
       </c>
       <c r="JL5" t="n">
-        <v>-89488</v>
+        <v>-89216</v>
       </c>
       <c r="JM5" t="n">
-        <v>-89461</v>
+        <v>-89442</v>
       </c>
       <c r="JN5" t="n">
-        <v>-91057</v>
+        <v>-90860</v>
       </c>
       <c r="JO5" t="n">
-        <v>-89786</v>
+        <v>-90368</v>
       </c>
       <c r="JP5" t="n">
-        <v>-93041</v>
+        <v>-93553</v>
       </c>
       <c r="JQ5" t="n">
-        <v>-94482</v>
+        <v>-95006</v>
       </c>
       <c r="JR5" t="n">
-        <v>-102909</v>
+        <v>-102403</v>
       </c>
       <c r="JS5" t="n">
-        <v>-105941</v>
-      </c>
-      <c r="JT5" t="inlineStr"/>
-      <c r="JU5" t="inlineStr"/>
+        <v>-105320</v>
+      </c>
+      <c r="JT5" t="n">
+        <v>-114082</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>-113854</v>
+      </c>
       <c r="JV5" t="inlineStr"/>
       <c r="JW5" t="inlineStr"/>
       <c r="JX5" t="inlineStr"/>
@@ -6047,85 +6063,89 @@
         <v>136375</v>
       </c>
       <c r="IT6" t="n">
-        <v>136131</v>
+        <v>136800</v>
       </c>
       <c r="IU6" t="n">
-        <v>135989</v>
+        <v>136954</v>
       </c>
       <c r="IV6" t="n">
-        <v>132714</v>
+        <v>133475</v>
       </c>
       <c r="IW6" t="n">
-        <v>119201</v>
+        <v>119518</v>
       </c>
       <c r="IX6" t="n">
-        <v>104317</v>
+        <v>103903</v>
       </c>
       <c r="IY6" t="n">
-        <v>96593</v>
+        <v>96323</v>
       </c>
       <c r="IZ6" t="n">
-        <v>103545</v>
+        <v>103326</v>
       </c>
       <c r="JA6" t="n">
-        <v>112855</v>
+        <v>112904</v>
       </c>
       <c r="JB6" t="n">
-        <v>118942</v>
+        <v>119217</v>
       </c>
       <c r="JC6" t="n">
-        <v>122235</v>
+        <v>122598</v>
       </c>
       <c r="JD6" t="n">
-        <v>124838</v>
+        <v>125328</v>
       </c>
       <c r="JE6" t="n">
-        <v>128017</v>
+        <v>128391</v>
       </c>
       <c r="JF6" t="n">
-        <v>130962</v>
+        <v>131533</v>
       </c>
       <c r="JG6" t="n">
-        <v>132210</v>
+        <v>132840</v>
       </c>
       <c r="JH6" t="n">
-        <v>136310</v>
+        <v>136798</v>
       </c>
       <c r="JI6" t="n">
-        <v>139881</v>
+        <v>139705</v>
       </c>
       <c r="JJ6" t="n">
-        <v>144995</v>
+        <v>144431</v>
       </c>
       <c r="JK6" t="n">
-        <v>145784</v>
+        <v>145185</v>
       </c>
       <c r="JL6" t="n">
-        <v>146970</v>
+        <v>146519</v>
       </c>
       <c r="JM6" t="n">
-        <v>148359</v>
+        <v>147898</v>
       </c>
       <c r="JN6" t="n">
-        <v>147310</v>
+        <v>147298</v>
       </c>
       <c r="JO6" t="n">
-        <v>150693</v>
+        <v>150529</v>
       </c>
       <c r="JP6" t="n">
-        <v>152770</v>
+        <v>152878</v>
       </c>
       <c r="JQ6" t="n">
-        <v>157833</v>
+        <v>157840</v>
       </c>
       <c r="JR6" t="n">
-        <v>156820</v>
+        <v>157604</v>
       </c>
       <c r="JS6" t="n">
-        <v>157656</v>
-      </c>
-      <c r="JT6" t="inlineStr"/>
-      <c r="JU6" t="inlineStr"/>
+        <v>158918</v>
+      </c>
+      <c r="JT6" t="n">
+        <v>162474</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>168872</v>
+      </c>
       <c r="JV6" t="inlineStr"/>
       <c r="JW6" t="inlineStr"/>
       <c r="JX6" t="inlineStr"/>
@@ -6914,82 +6934,86 @@
         <v>203456</v>
       </c>
       <c r="IU7" t="n">
-        <v>202900</v>
+        <v>203046</v>
       </c>
       <c r="IV7" t="n">
-        <v>199468</v>
+        <v>199250</v>
       </c>
       <c r="IW7" t="n">
-        <v>188213</v>
+        <v>187810</v>
       </c>
       <c r="IX7" t="n">
-        <v>177646</v>
+        <v>176900</v>
       </c>
       <c r="IY7" t="n">
-        <v>171017</v>
+        <v>170573</v>
       </c>
       <c r="IZ7" t="n">
-        <v>180027</v>
+        <v>179487</v>
       </c>
       <c r="JA7" t="n">
-        <v>191442</v>
+        <v>190962</v>
       </c>
       <c r="JB7" t="n">
-        <v>200732</v>
+        <v>200240</v>
       </c>
       <c r="JC7" t="n">
-        <v>204471</v>
+        <v>204171</v>
       </c>
       <c r="JD7" t="n">
-        <v>208161</v>
+        <v>207891</v>
       </c>
       <c r="JE7" t="n">
-        <v>212392</v>
+        <v>211972</v>
       </c>
       <c r="JF7" t="n">
-        <v>216614</v>
+        <v>216520</v>
       </c>
       <c r="JG7" t="n">
-        <v>218678</v>
+        <v>218798</v>
       </c>
       <c r="JH7" t="n">
-        <v>225317</v>
+        <v>225221</v>
       </c>
       <c r="JI7" t="n">
-        <v>229042</v>
+        <v>228498</v>
       </c>
       <c r="JJ7" t="n">
-        <v>234159</v>
+        <v>233135</v>
       </c>
       <c r="JK7" t="n">
-        <v>235033</v>
+        <v>234328</v>
       </c>
       <c r="JL7" t="n">
-        <v>236458</v>
+        <v>235735</v>
       </c>
       <c r="JM7" t="n">
-        <v>237820</v>
+        <v>237340</v>
       </c>
       <c r="JN7" t="n">
-        <v>238367</v>
+        <v>238157</v>
       </c>
       <c r="JO7" t="n">
-        <v>240479</v>
+        <v>240897</v>
       </c>
       <c r="JP7" t="n">
-        <v>245811</v>
+        <v>246431</v>
       </c>
       <c r="JQ7" t="n">
-        <v>252315</v>
+        <v>252847</v>
       </c>
       <c r="JR7" t="n">
-        <v>259729</v>
+        <v>260007</v>
       </c>
       <c r="JS7" t="n">
-        <v>263597</v>
-      </c>
-      <c r="JT7" t="inlineStr"/>
-      <c r="JU7" t="inlineStr"/>
+        <v>264238</v>
+      </c>
+      <c r="JT7" t="n">
+        <v>276556</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>282726</v>
+      </c>
       <c r="JV7" t="inlineStr"/>
       <c r="JW7" t="inlineStr"/>
       <c r="JX7" t="inlineStr"/>
@@ -7775,85 +7799,89 @@
         <v>24145</v>
       </c>
       <c r="IT8" t="n">
-        <v>23502</v>
+        <v>24345</v>
       </c>
       <c r="IU8" t="n">
-        <v>22740</v>
+        <v>23176</v>
       </c>
       <c r="IV8" t="n">
-        <v>22004</v>
+        <v>22540</v>
       </c>
       <c r="IW8" t="n">
-        <v>21760</v>
+        <v>22427</v>
       </c>
       <c r="IX8" t="n">
-        <v>21652</v>
+        <v>22511</v>
       </c>
       <c r="IY8" t="n">
-        <v>21574</v>
+        <v>22388</v>
       </c>
       <c r="IZ8" t="n">
-        <v>21038</v>
+        <v>22109</v>
       </c>
       <c r="JA8" t="n">
-        <v>20204</v>
+        <v>21756</v>
       </c>
       <c r="JB8" t="n">
-        <v>19423</v>
+        <v>21343</v>
       </c>
       <c r="JC8" t="n">
-        <v>18890</v>
+        <v>20798</v>
       </c>
       <c r="JD8" t="n">
-        <v>18786</v>
+        <v>20498</v>
       </c>
       <c r="JE8" t="n">
-        <v>18780</v>
+        <v>20361</v>
       </c>
       <c r="JF8" t="n">
-        <v>19574</v>
+        <v>21193</v>
       </c>
       <c r="JG8" t="n">
-        <v>20310</v>
+        <v>22061</v>
       </c>
       <c r="JH8" t="n">
-        <v>20985</v>
+        <v>22692</v>
       </c>
       <c r="JI8" t="n">
-        <v>21037</v>
+        <v>22430</v>
       </c>
       <c r="JJ8" t="n">
-        <v>21124</v>
+        <v>21895</v>
       </c>
       <c r="JK8" t="n">
-        <v>20931</v>
+        <v>21238</v>
       </c>
       <c r="JL8" t="n">
-        <v>19742</v>
+        <v>20092</v>
       </c>
       <c r="JM8" t="n">
-        <v>17974</v>
+        <v>18720</v>
       </c>
       <c r="JN8" t="n">
-        <v>16593</v>
+        <v>17812</v>
       </c>
       <c r="JO8" t="n">
-        <v>16244</v>
+        <v>17730</v>
       </c>
       <c r="JP8" t="n">
-        <v>16984</v>
+        <v>18731</v>
       </c>
       <c r="JQ8" t="n">
-        <v>18159</v>
+        <v>20007</v>
       </c>
       <c r="JR8" t="n">
-        <v>19157</v>
+        <v>20794</v>
       </c>
       <c r="JS8" t="n">
-        <v>19151</v>
-      </c>
-      <c r="JT8" t="inlineStr"/>
-      <c r="JU8" t="inlineStr"/>
+        <v>20325</v>
+      </c>
+      <c r="JT8" t="n">
+        <v>19492</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>19566</v>
+      </c>
       <c r="JV8" t="inlineStr"/>
       <c r="JW8" t="inlineStr"/>
       <c r="JX8" t="inlineStr"/>
@@ -8639,85 +8667,89 @@
         <v>73551</v>
       </c>
       <c r="IT9" t="n">
-        <v>72106</v>
+        <v>73355</v>
       </c>
       <c r="IU9" t="n">
-        <v>70609</v>
+        <v>71921</v>
       </c>
       <c r="IV9" t="n">
-        <v>66419</v>
+        <v>67850</v>
       </c>
       <c r="IW9" t="n">
-        <v>61594</v>
+        <v>62932</v>
       </c>
       <c r="IX9" t="n">
-        <v>56907</v>
+        <v>58081</v>
       </c>
       <c r="IY9" t="n">
-        <v>55069</v>
+        <v>56076</v>
       </c>
       <c r="IZ9" t="n">
-        <v>55062</v>
+        <v>56209</v>
       </c>
       <c r="JA9" t="n">
-        <v>55146</v>
+        <v>56638</v>
       </c>
       <c r="JB9" t="n">
-        <v>55478</v>
+        <v>57364</v>
       </c>
       <c r="JC9" t="n">
-        <v>56125</v>
+        <v>58381</v>
       </c>
       <c r="JD9" t="n">
-        <v>57156</v>
+        <v>59675</v>
       </c>
       <c r="JE9" t="n">
-        <v>58248</v>
+        <v>60855</v>
       </c>
       <c r="JF9" t="n">
-        <v>59236</v>
+        <v>61769</v>
       </c>
       <c r="JG9" t="n">
-        <v>59803</v>
+        <v>62153</v>
       </c>
       <c r="JH9" t="n">
-        <v>60529</v>
+        <v>62645</v>
       </c>
       <c r="JI9" t="n">
-        <v>61360</v>
+        <v>63103</v>
       </c>
       <c r="JJ9" t="n">
-        <v>62608</v>
+        <v>64000</v>
       </c>
       <c r="JK9" t="n">
-        <v>63679</v>
+        <v>64897</v>
       </c>
       <c r="JL9" t="n">
-        <v>64375</v>
+        <v>65723</v>
       </c>
       <c r="JM9" t="n">
-        <v>64580</v>
+        <v>66198</v>
       </c>
       <c r="JN9" t="n">
-        <v>64653</v>
+        <v>66563</v>
       </c>
       <c r="JO9" t="n">
-        <v>65059</v>
+        <v>67257</v>
       </c>
       <c r="JP9" t="n">
-        <v>66504</v>
+        <v>69009</v>
       </c>
       <c r="JQ9" t="n">
-        <v>68221</v>
+        <v>70986</v>
       </c>
       <c r="JR9" t="n">
-        <v>69146</v>
+        <v>71852</v>
       </c>
       <c r="JS9" t="n">
-        <v>69500</v>
-      </c>
-      <c r="JT9" t="inlineStr"/>
-      <c r="JU9" t="inlineStr"/>
+        <v>72071</v>
+      </c>
+      <c r="JT9" t="n">
+        <v>72407</v>
+      </c>
+      <c r="JU9" t="n">
+        <v>74287</v>
+      </c>
       <c r="JV9" t="inlineStr"/>
       <c r="JW9" t="inlineStr"/>
       <c r="JX9" t="inlineStr"/>
@@ -9503,85 +9535,89 @@
         <v>49405</v>
       </c>
       <c r="IT10" t="n">
-        <v>48605</v>
+        <v>49010</v>
       </c>
       <c r="IU10" t="n">
-        <v>47869</v>
+        <v>48745</v>
       </c>
       <c r="IV10" t="n">
-        <v>44415</v>
+        <v>45310</v>
       </c>
       <c r="IW10" t="n">
-        <v>39833</v>
+        <v>40505</v>
       </c>
       <c r="IX10" t="n">
-        <v>35255</v>
+        <v>35571</v>
       </c>
       <c r="IY10" t="n">
-        <v>33495</v>
+        <v>33688</v>
       </c>
       <c r="IZ10" t="n">
-        <v>34024</v>
+        <v>34100</v>
       </c>
       <c r="JA10" t="n">
-        <v>34942</v>
+        <v>34882</v>
       </c>
       <c r="JB10" t="n">
-        <v>36054</v>
+        <v>36021</v>
       </c>
       <c r="JC10" t="n">
-        <v>37235</v>
+        <v>37583</v>
       </c>
       <c r="JD10" t="n">
-        <v>38370</v>
+        <v>39177</v>
       </c>
       <c r="JE10" t="n">
-        <v>39469</v>
+        <v>40494</v>
       </c>
       <c r="JF10" t="n">
-        <v>39662</v>
+        <v>40577</v>
       </c>
       <c r="JG10" t="n">
-        <v>39493</v>
+        <v>40092</v>
       </c>
       <c r="JH10" t="n">
-        <v>39545</v>
+        <v>39953</v>
       </c>
       <c r="JI10" t="n">
-        <v>40323</v>
+        <v>40673</v>
       </c>
       <c r="JJ10" t="n">
-        <v>41484</v>
+        <v>42105</v>
       </c>
       <c r="JK10" t="n">
-        <v>42748</v>
+        <v>43659</v>
       </c>
       <c r="JL10" t="n">
-        <v>44632</v>
+        <v>45632</v>
       </c>
       <c r="JM10" t="n">
-        <v>46606</v>
+        <v>47478</v>
       </c>
       <c r="JN10" t="n">
-        <v>48061</v>
+        <v>48750</v>
       </c>
       <c r="JO10" t="n">
-        <v>48815</v>
+        <v>49527</v>
       </c>
       <c r="JP10" t="n">
-        <v>49520</v>
+        <v>50278</v>
       </c>
       <c r="JQ10" t="n">
-        <v>50062</v>
+        <v>50980</v>
       </c>
       <c r="JR10" t="n">
-        <v>49989</v>
+        <v>51059</v>
       </c>
       <c r="JS10" t="n">
-        <v>50349</v>
-      </c>
-      <c r="JT10" t="inlineStr"/>
-      <c r="JU10" t="inlineStr"/>
+        <v>51746</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>52914</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>54720</v>
+      </c>
       <c r="JV10" t="inlineStr"/>
       <c r="JW10" t="inlineStr"/>
       <c r="JX10" t="inlineStr"/>
